--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Adam17-Notch1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Adam17-Notch1.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>33.47808166666666</v>
+        <v>8.771609</v>
       </c>
       <c r="H2">
-        <v>100.434245</v>
+        <v>26.314827</v>
       </c>
       <c r="I2">
-        <v>0.4880542983452504</v>
+        <v>0.2200338127677125</v>
       </c>
       <c r="J2">
-        <v>0.4880542983452505</v>
+        <v>0.2200338127677125</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>55.908252</v>
+        <v>38.55267666666666</v>
       </c>
       <c r="N2">
-        <v>167.724756</v>
+        <v>115.65803</v>
       </c>
       <c r="O2">
-        <v>0.6412441619121594</v>
+        <v>0.5758151725879548</v>
       </c>
       <c r="P2">
-        <v>0.6412441619121594</v>
+        <v>0.5758151725879548</v>
       </c>
       <c r="Q2">
-        <v>1871.70102629658</v>
+        <v>338.1690056234233</v>
       </c>
       <c r="R2">
-        <v>16845.30923666922</v>
+        <v>3043.52105061081</v>
       </c>
       <c r="S2">
-        <v>0.3129619695100271</v>
+        <v>0.1266988078740261</v>
       </c>
       <c r="T2">
-        <v>0.3129619695100271</v>
+        <v>0.1266988078740261</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>33.47808166666666</v>
+        <v>8.771609</v>
       </c>
       <c r="H3">
-        <v>100.434245</v>
+        <v>26.314827</v>
       </c>
       <c r="I3">
-        <v>0.4880542983452504</v>
+        <v>0.2200338127677125</v>
       </c>
       <c r="J3">
-        <v>0.4880542983452505</v>
+        <v>0.2200338127677125</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>16.112028</v>
       </c>
       <c r="O3">
-        <v>0.06159939735768788</v>
+        <v>0.08021535714867321</v>
       </c>
       <c r="P3">
-        <v>0.06159939735768788</v>
+        <v>0.08021535714867323</v>
       </c>
       <c r="Q3">
-        <v>179.7999297332066</v>
+        <v>47.109469937684</v>
       </c>
       <c r="R3">
-        <v>1618.19936759886</v>
+        <v>423.9852294391561</v>
       </c>
       <c r="S3">
-        <v>0.03006385065589663</v>
+        <v>0.01765009087594635</v>
       </c>
       <c r="T3">
-        <v>0.03006385065589664</v>
+        <v>0.01765009087594635</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>33.47808166666666</v>
+        <v>8.771609</v>
       </c>
       <c r="H4">
-        <v>100.434245</v>
+        <v>26.314827</v>
       </c>
       <c r="I4">
-        <v>0.4880542983452504</v>
+        <v>0.2200338127677125</v>
       </c>
       <c r="J4">
-        <v>0.4880542983452505</v>
+        <v>0.2200338127677125</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>25.90822366666667</v>
+        <v>23.02986166666667</v>
       </c>
       <c r="N4">
-        <v>77.724671</v>
+        <v>69.089585</v>
       </c>
       <c r="O4">
-        <v>0.2971564407301527</v>
+        <v>0.3439694702633719</v>
       </c>
       <c r="P4">
-        <v>0.2971564407301527</v>
+        <v>0.3439694702633719</v>
       </c>
       <c r="Q4">
-        <v>867.3576277509327</v>
+        <v>202.0089418640883</v>
       </c>
       <c r="R4">
-        <v>7806.218649758394</v>
+        <v>1818.080476776795</v>
       </c>
       <c r="S4">
-        <v>0.1450284781793267</v>
+        <v>0.07568491401774001</v>
       </c>
       <c r="T4">
-        <v>0.1450284781793267</v>
+        <v>0.07568491401774004</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>69.74328800000001</v>
       </c>
       <c r="I5">
-        <v>0.3389134003957588</v>
+        <v>0.583164828467109</v>
       </c>
       <c r="J5">
-        <v>0.3389134003957588</v>
+        <v>0.583164828467109</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>55.908252</v>
+        <v>38.55267666666666</v>
       </c>
       <c r="N5">
-        <v>167.724756</v>
+        <v>115.65803</v>
       </c>
       <c r="O5">
-        <v>0.6412441619121594</v>
+        <v>0.5758151725879548</v>
       </c>
       <c r="P5">
-        <v>0.6412441619121594</v>
+        <v>0.5758151725879548</v>
       </c>
       <c r="Q5">
-        <v>1299.741773604192</v>
+        <v>896.2634773114045</v>
       </c>
       <c r="R5">
-        <v>11697.67596243773</v>
+        <v>8066.371295802641</v>
       </c>
       <c r="S5">
-        <v>0.2173262393975784</v>
+        <v>0.3357951563510134</v>
       </c>
       <c r="T5">
-        <v>0.2173262393975784</v>
+        <v>0.3357951563510134</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>69.74328800000001</v>
       </c>
       <c r="I6">
-        <v>0.3389134003957588</v>
+        <v>0.583164828467109</v>
       </c>
       <c r="J6">
-        <v>0.3389134003957588</v>
+        <v>0.583164828467109</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>16.112028</v>
       </c>
       <c r="O6">
-        <v>0.06159939735768788</v>
+        <v>0.08021535714867321</v>
       </c>
       <c r="P6">
-        <v>0.06159939735768788</v>
+        <v>0.08021535714867323</v>
       </c>
       <c r="Q6">
         <v>124.8562010075627</v>
@@ -818,10 +818,10 @@
         <v>1123.705809068064</v>
       </c>
       <c r="S6">
-        <v>0.02087686122082352</v>
+        <v>0.0467787749920339</v>
       </c>
       <c r="T6">
-        <v>0.02087686122082352</v>
+        <v>0.04677877499203391</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>69.74328800000001</v>
       </c>
       <c r="I7">
-        <v>0.3389134003957588</v>
+        <v>0.583164828467109</v>
       </c>
       <c r="J7">
-        <v>0.3389134003957588</v>
+        <v>0.583164828467109</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>25.90822366666667</v>
+        <v>23.02986166666667</v>
       </c>
       <c r="N7">
-        <v>77.724671</v>
+        <v>69.089585</v>
       </c>
       <c r="O7">
-        <v>0.2971564407301527</v>
+        <v>0.3439694702633719</v>
       </c>
       <c r="P7">
-        <v>0.2971564407301527</v>
+        <v>0.3439694702633719</v>
       </c>
       <c r="Q7">
-        <v>602.3082349175833</v>
+        <v>535.3927582728312</v>
       </c>
       <c r="R7">
-        <v>5420.774114258249</v>
+        <v>4818.534824455481</v>
       </c>
       <c r="S7">
-        <v>0.1007102997773568</v>
+        <v>0.2005908971240616</v>
       </c>
       <c r="T7">
-        <v>0.1007102997773568</v>
+        <v>0.2005908971240617</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>11.86914966666667</v>
+        <v>7.845451333333334</v>
       </c>
       <c r="H8">
-        <v>35.607449</v>
+        <v>23.536354</v>
       </c>
       <c r="I8">
-        <v>0.1730323012589908</v>
+        <v>0.1968013587651783</v>
       </c>
       <c r="J8">
-        <v>0.1730323012589908</v>
+        <v>0.1968013587651783</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>55.908252</v>
+        <v>38.55267666666666</v>
       </c>
       <c r="N8">
-        <v>167.724756</v>
+        <v>115.65803</v>
       </c>
       <c r="O8">
-        <v>0.6412441619121594</v>
+        <v>0.5758151725879548</v>
       </c>
       <c r="P8">
-        <v>0.6412441619121594</v>
+        <v>0.5758151725879548</v>
       </c>
       <c r="Q8">
-        <v>663.5834105897161</v>
+        <v>302.4631485580689</v>
       </c>
       <c r="R8">
-        <v>5972.250695307445</v>
+        <v>2722.16833702262</v>
       </c>
       <c r="S8">
-        <v>0.1109559530045538</v>
+        <v>0.1133212083629152</v>
       </c>
       <c r="T8">
-        <v>0.1109559530045539</v>
+        <v>0.1133212083629152</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>11.86914966666667</v>
+        <v>7.845451333333334</v>
       </c>
       <c r="H9">
-        <v>35.607449</v>
+        <v>23.536354</v>
       </c>
       <c r="I9">
-        <v>0.1730323012589908</v>
+        <v>0.1968013587651783</v>
       </c>
       <c r="J9">
-        <v>0.1730323012589908</v>
+        <v>0.1968013587651783</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>16.112028</v>
       </c>
       <c r="O9">
-        <v>0.06159939735768788</v>
+        <v>0.08021535714867321</v>
       </c>
       <c r="P9">
-        <v>0.06159939735768788</v>
+        <v>0.08021535714867323</v>
       </c>
       <c r="Q9">
-        <v>63.74535725517466</v>
+        <v>42.13537718510134</v>
       </c>
       <c r="R9">
-        <v>573.708215296572</v>
+        <v>379.2183946659121</v>
       </c>
       <c r="S9">
-        <v>0.01065868548096773</v>
+        <v>0.01578649128069295</v>
       </c>
       <c r="T9">
-        <v>0.01065868548096773</v>
+        <v>0.01578649128069295</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>11.86914966666667</v>
+        <v>7.845451333333334</v>
       </c>
       <c r="H10">
-        <v>35.607449</v>
+        <v>23.536354</v>
       </c>
       <c r="I10">
-        <v>0.1730323012589908</v>
+        <v>0.1968013587651783</v>
       </c>
       <c r="J10">
-        <v>0.1730323012589908</v>
+        <v>0.1968013587651783</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>25.90822366666667</v>
+        <v>23.02986166666667</v>
       </c>
       <c r="N10">
-        <v>77.724671</v>
+        <v>69.089585</v>
       </c>
       <c r="O10">
-        <v>0.2971564407301527</v>
+        <v>0.3439694702633719</v>
       </c>
       <c r="P10">
-        <v>0.2971564407301527</v>
+        <v>0.3439694702633719</v>
       </c>
       <c r="Q10">
-        <v>307.5085842971421</v>
+        <v>180.6796589192322</v>
       </c>
       <c r="R10">
-        <v>2767.577258674279</v>
+        <v>1626.11693027309</v>
       </c>
       <c r="S10">
-        <v>0.05141766277346922</v>
+        <v>0.06769365912157019</v>
       </c>
       <c r="T10">
-        <v>0.05141766277346923</v>
+        <v>0.0676936591215702</v>
       </c>
     </row>
   </sheetData>
